--- a/jobs/fase-experimental.xlsx
+++ b/jobs/fase-experimental.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
   <si>
     <t>dataset</t>
   </si>
@@ -113,12 +113,39 @@
   <si>
     <t>Experiências com Subset do número máximo de regras com nova forma de cálculo da accuracy/gamma</t>
   </si>
+  <si>
+    <t>Previsões Eleitorais</t>
+  </si>
+  <si>
+    <t>germany 2005-2009</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>portugal 2009-2013</t>
+  </si>
+  <si>
+    <t>portugal 2013-2017</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>portugal 2009-2013 (imp = 0,01)</t>
+  </si>
+  <si>
+    <t>def.rank</t>
+  </si>
+  <si>
+    <t>pairs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,8 +211,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +484,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,14 +616,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +628,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -589,9 +659,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -610,6 +677,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -626,21 +708,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,8 +728,67 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -989,11 +1114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235003264"/>
-        <c:axId val="1235006096"/>
+        <c:axId val="1529814512"/>
+        <c:axId val="1529817344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235003264"/>
+        <c:axId val="1529814512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1161,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235006096"/>
+        <c:crossAx val="1529817344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235006096"/>
+        <c:axId val="1529817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1206,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235003264"/>
+        <c:crossAx val="1529814512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1095,7 +1220,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1202,7 +1326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1356,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235809088"/>
-        <c:axId val="1235812848"/>
+        <c:axId val="1528758944"/>
+        <c:axId val="1458241552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235809088"/>
+        <c:axId val="1528758944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1422,6 +1544,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1458,12 +1581,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235812848"/>
+        <c:crossAx val="1458241552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235812848"/>
+        <c:axId val="1458241552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1632,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1575,7 +1697,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235809088"/>
+        <c:crossAx val="1528758944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1664,7 +1786,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2121,11 +2242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235124144"/>
-        <c:axId val="1235127408"/>
+        <c:axId val="1528775024"/>
+        <c:axId val="1528778288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235124144"/>
+        <c:axId val="1528775024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2289,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235127408"/>
+        <c:crossAx val="1528778288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235127408"/>
+        <c:axId val="1528778288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2334,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235124144"/>
+        <c:crossAx val="1528775024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,7 +2348,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2334,7 +2454,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2494,11 +2613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235821424"/>
-        <c:axId val="1235824768"/>
+        <c:axId val="1530333120"/>
+        <c:axId val="1528796784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235821424"/>
+        <c:axId val="1530333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,7 +2649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2596,12 +2714,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235824768"/>
+        <c:crossAx val="1528796784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235824768"/>
+        <c:axId val="1528796784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2765,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2713,7 +2830,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235821424"/>
+        <c:crossAx val="1530333120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2802,7 +2919,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3223,11 +3339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235155360"/>
-        <c:axId val="1235158624"/>
+        <c:axId val="1533118624"/>
+        <c:axId val="1533121888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235155360"/>
+        <c:axId val="1533118624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,7 +3386,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235158624"/>
+        <c:crossAx val="1533121888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3278,7 +3394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235158624"/>
+        <c:axId val="1533121888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,7 +3431,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235155360"/>
+        <c:crossAx val="1533118624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3329,7 +3445,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3436,7 +3551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3578,11 +3692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235182864"/>
-        <c:axId val="1235186624"/>
+        <c:axId val="1533143120"/>
+        <c:axId val="1533146880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235182864"/>
+        <c:axId val="1533143120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +3728,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3680,12 +3793,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235186624"/>
+        <c:crossAx val="1533146880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235186624"/>
+        <c:axId val="1533146880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3844,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3797,7 +3909,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235182864"/>
+        <c:crossAx val="1533143120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3886,7 +3998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4283,11 +4394,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1236283472"/>
-        <c:axId val="1236286736"/>
+        <c:axId val="1533165376"/>
+        <c:axId val="1533168640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1236283472"/>
+        <c:axId val="1533165376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4330,7 +4441,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236286736"/>
+        <c:crossAx val="1533168640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4338,7 +4449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1236286736"/>
+        <c:axId val="1533168640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4486,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236283472"/>
+        <c:crossAx val="1533165376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4389,7 +4500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4515,7 +4625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4659,11 +4768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235840176"/>
-        <c:axId val="1235845168"/>
+        <c:axId val="1533195312"/>
+        <c:axId val="1533199072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235840176"/>
+        <c:axId val="1533195312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,7 +4804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4761,12 +4869,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235845168"/>
+        <c:crossAx val="1533199072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235845168"/>
+        <c:axId val="1533199072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,7 +4920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4878,7 +4985,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235840176"/>
+        <c:crossAx val="1533195312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4967,7 +5074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5352,11 +5458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235881616"/>
-        <c:axId val="1235884880"/>
+        <c:axId val="1533230928"/>
+        <c:axId val="1533234192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235881616"/>
+        <c:axId val="1533230928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5399,7 +5505,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235884880"/>
+        <c:crossAx val="1533234192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5407,7 +5513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235884880"/>
+        <c:axId val="1533234192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,7 +5550,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235881616"/>
+        <c:crossAx val="1533230928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5458,7 +5564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5584,7 +5689,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5722,11 +5826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235904912"/>
-        <c:axId val="1235908672"/>
+        <c:axId val="1533244640"/>
+        <c:axId val="1533248400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235904912"/>
+        <c:axId val="1533244640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5758,7 +5862,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5825,12 +5928,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235908672"/>
+        <c:crossAx val="1533248400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235908672"/>
+        <c:axId val="1533248400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +5979,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5942,7 +6044,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235904912"/>
+        <c:crossAx val="1533244640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6031,7 +6133,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6500,11 +6601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235941776"/>
-        <c:axId val="1235945040"/>
+        <c:axId val="1533270704"/>
+        <c:axId val="1533273968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235941776"/>
+        <c:axId val="1533270704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,7 +6648,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235945040"/>
+        <c:crossAx val="1533273968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6555,7 +6656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235945040"/>
+        <c:axId val="1533273968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6592,7 +6693,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235941776"/>
+        <c:crossAx val="1533270704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6606,7 +6707,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6713,7 +6813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7110,11 +7209,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235049744"/>
-        <c:axId val="1235053008"/>
+        <c:axId val="1528631152"/>
+        <c:axId val="1528633984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235049744"/>
+        <c:axId val="1528631152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7157,7 +7256,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235053008"/>
+        <c:crossAx val="1528633984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7165,7 +7264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235053008"/>
+        <c:axId val="1528633984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7202,7 +7301,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235049744"/>
+        <c:crossAx val="1528631152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7216,7 +7315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7342,7 +7440,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7522,11 +7619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236302480"/>
-        <c:axId val="1236306240"/>
+        <c:axId val="1533301168"/>
+        <c:axId val="1533304928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236302480"/>
+        <c:axId val="1533301168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7558,7 +7655,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7625,12 +7721,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236306240"/>
+        <c:crossAx val="1533304928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236306240"/>
+        <c:axId val="1533304928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,7 +7772,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7742,7 +7837,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236302480"/>
+        <c:crossAx val="1533301168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7831,7 +7926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8204,11 +8298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235970576"/>
-        <c:axId val="1235973840"/>
+        <c:axId val="1533323360"/>
+        <c:axId val="1533326624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235970576"/>
+        <c:axId val="1533323360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8251,7 +8345,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235973840"/>
+        <c:crossAx val="1533326624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8259,7 +8353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235973840"/>
+        <c:axId val="1533326624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8296,7 +8390,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235970576"/>
+        <c:crossAx val="1533323360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8310,7 +8404,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8436,7 +8529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8568,11 +8660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235999696"/>
-        <c:axId val="1236003456"/>
+        <c:axId val="1533351024"/>
+        <c:axId val="1533354784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235999696"/>
+        <c:axId val="1533351024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,7 +8696,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8671,12 +8762,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236003456"/>
+        <c:crossAx val="1533354784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236003456"/>
+        <c:axId val="1533354784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8722,7 +8813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8788,7 +8878,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235999696"/>
+        <c:crossAx val="1533351024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8877,7 +8967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9406,11 +9495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1236037184"/>
-        <c:axId val="1236040448"/>
+        <c:axId val="1533388240"/>
+        <c:axId val="1533391504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1236037184"/>
+        <c:axId val="1533388240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9453,7 +9542,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236040448"/>
+        <c:crossAx val="1533391504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9461,7 +9550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1236040448"/>
+        <c:axId val="1533391504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9498,7 +9587,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236037184"/>
+        <c:crossAx val="1533388240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9512,7 +9601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9635,7 +9723,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9845,11 +9932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236326352"/>
-        <c:axId val="1236330112"/>
+        <c:axId val="1533395264"/>
+        <c:axId val="1533399024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236326352"/>
+        <c:axId val="1533395264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9881,7 +9968,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9948,12 +10034,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236330112"/>
+        <c:crossAx val="1533399024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236330112"/>
+        <c:axId val="1533399024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9999,7 +10085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10065,7 +10150,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236326352"/>
+        <c:crossAx val="1533395264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10154,7 +10239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10274,11 +10358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236355552"/>
-        <c:axId val="1236359312"/>
+        <c:axId val="1533415584"/>
+        <c:axId val="1533419344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236355552"/>
+        <c:axId val="1533415584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10310,7 +10394,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10377,12 +10460,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236359312"/>
+        <c:crossAx val="1533419344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236359312"/>
+        <c:axId val="1533419344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10428,7 +10511,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10495,7 +10577,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236355552"/>
+        <c:crossAx val="1533415584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10584,7 +10666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10710,11 +10791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236381616"/>
-        <c:axId val="1236385376"/>
+        <c:axId val="1533444480"/>
+        <c:axId val="1533448240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236381616"/>
+        <c:axId val="1533444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10746,7 +10827,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10813,12 +10893,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236385376"/>
+        <c:crossAx val="1533448240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236385376"/>
+        <c:axId val="1533448240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10864,7 +10944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10931,7 +11010,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236381616"/>
+        <c:crossAx val="1533444480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11020,7 +11099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11146,11 +11224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236407024"/>
-        <c:axId val="1236410784"/>
+        <c:axId val="1533467568"/>
+        <c:axId val="1533471600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236407024"/>
+        <c:axId val="1533467568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11182,7 +11260,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11249,12 +11326,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236410784"/>
+        <c:crossAx val="1533471600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236410784"/>
+        <c:axId val="1533471600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11300,7 +11377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11367,7 +11443,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236407024"/>
+        <c:crossAx val="1533467568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11456,7 +11532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11582,11 +11657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236055584"/>
-        <c:axId val="1236059344"/>
+        <c:axId val="1534070592"/>
+        <c:axId val="1533486336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236055584"/>
+        <c:axId val="1534070592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11618,7 +11693,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11685,12 +11759,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236059344"/>
+        <c:crossAx val="1533486336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236059344"/>
+        <c:axId val="1533486336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11736,7 +11810,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11803,7 +11876,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236055584"/>
+        <c:crossAx val="1534070592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11892,7 +11965,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12018,11 +12090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236395120"/>
-        <c:axId val="1236421344"/>
+        <c:axId val="1533508896"/>
+        <c:axId val="1533512656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236395120"/>
+        <c:axId val="1533508896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12054,7 +12126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12121,12 +12192,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236421344"/>
+        <c:crossAx val="1533512656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236421344"/>
+        <c:axId val="1533512656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12172,7 +12243,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12239,7 +12309,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236395120"/>
+        <c:crossAx val="1533508896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12328,7 +12398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12653,11 +12722,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235083760"/>
-        <c:axId val="1235087024"/>
+        <c:axId val="1529849504"/>
+        <c:axId val="1529852768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235083760"/>
+        <c:axId val="1529849504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12700,7 +12769,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235087024"/>
+        <c:crossAx val="1529852768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12708,7 +12777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235087024"/>
+        <c:axId val="1529852768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12745,7 +12814,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235083760"/>
+        <c:crossAx val="1529849504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12759,7 +12828,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12866,7 +12934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12992,11 +13059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236448368"/>
-        <c:axId val="1236065280"/>
+        <c:axId val="1530352384"/>
+        <c:axId val="1530356144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236448368"/>
+        <c:axId val="1530352384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13028,7 +13095,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13095,12 +13161,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236065280"/>
+        <c:crossAx val="1530356144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236065280"/>
+        <c:axId val="1530356144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13146,7 +13212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13213,7 +13278,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236448368"/>
+        <c:crossAx val="1530352384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13302,7 +13367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13422,11 +13486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236092656"/>
-        <c:axId val="1236096416"/>
+        <c:axId val="1533528016"/>
+        <c:axId val="1533531776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236092656"/>
+        <c:axId val="1533528016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13458,7 +13522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13525,12 +13588,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236096416"/>
+        <c:crossAx val="1533531776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236096416"/>
+        <c:axId val="1533531776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13576,7 +13639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13643,7 +13705,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236092656"/>
+        <c:crossAx val="1533528016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13732,7 +13794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13852,11 +13913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236122000"/>
-        <c:axId val="1236125760"/>
+        <c:axId val="1533540656"/>
+        <c:axId val="1533544416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236122000"/>
+        <c:axId val="1533540656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13888,7 +13949,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13955,12 +14015,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236125760"/>
+        <c:crossAx val="1533544416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236125760"/>
+        <c:axId val="1533544416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14006,7 +14066,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14073,7 +14132,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236122000"/>
+        <c:crossAx val="1533540656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14162,7 +14221,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14288,11 +14346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236145936"/>
-        <c:axId val="1236149696"/>
+        <c:axId val="1533569696"/>
+        <c:axId val="1533573456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236145936"/>
+        <c:axId val="1533569696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14324,7 +14382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14391,12 +14448,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236149696"/>
+        <c:crossAx val="1533573456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236149696"/>
+        <c:axId val="1533573456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14442,7 +14499,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14509,7 +14565,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236145936"/>
+        <c:crossAx val="1533569696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14598,7 +14654,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14724,11 +14779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236160928"/>
-        <c:axId val="1236164688"/>
+        <c:axId val="1533594928"/>
+        <c:axId val="1533598688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236160928"/>
+        <c:axId val="1533594928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14760,7 +14815,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14827,12 +14881,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236164688"/>
+        <c:crossAx val="1533598688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236164688"/>
+        <c:axId val="1533598688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14878,7 +14932,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14945,7 +14998,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236160928"/>
+        <c:crossAx val="1533594928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15034,7 +15087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15160,11 +15212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236187840"/>
-        <c:axId val="1236191600"/>
+        <c:axId val="1533619696"/>
+        <c:axId val="1533623456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236187840"/>
+        <c:axId val="1533619696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15196,7 +15248,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15263,12 +15314,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236191600"/>
+        <c:crossAx val="1533623456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236191600"/>
+        <c:axId val="1533623456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15314,7 +15365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15381,7 +15431,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236187840"/>
+        <c:crossAx val="1533619696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15470,7 +15520,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15596,11 +15645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236215440"/>
-        <c:axId val="1236219200"/>
+        <c:axId val="1458285792"/>
+        <c:axId val="1458289552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236215440"/>
+        <c:axId val="1458285792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15632,7 +15681,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15699,12 +15747,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236219200"/>
+        <c:crossAx val="1458289552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236219200"/>
+        <c:axId val="1458289552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15750,7 +15798,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15817,7 +15864,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236215440"/>
+        <c:crossAx val="1458285792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15906,7 +15953,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16032,11 +16078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236239696"/>
-        <c:axId val="1236243456"/>
+        <c:axId val="1533642096"/>
+        <c:axId val="1533645856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236239696"/>
+        <c:axId val="1533642096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16068,7 +16114,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16135,12 +16180,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236243456"/>
+        <c:crossAx val="1533645856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236243456"/>
+        <c:axId val="1533645856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16186,7 +16231,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16253,7 +16297,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236239696"/>
+        <c:crossAx val="1533642096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16342,7 +16386,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16462,11 +16505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1236466640"/>
-        <c:axId val="1236470400"/>
+        <c:axId val="1534106464"/>
+        <c:axId val="1534110224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1236466640"/>
+        <c:axId val="1534106464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16498,7 +16541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16565,12 +16607,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236470400"/>
+        <c:crossAx val="1534110224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1236470400"/>
+        <c:axId val="1534110224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16616,7 +16658,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16683,7 +16724,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1236466640"/>
+        <c:crossAx val="1534106464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16772,7 +16813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16892,11 +16932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1326841712"/>
-        <c:axId val="843069856"/>
+        <c:axId val="1533659232"/>
+        <c:axId val="1533662992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1326841712"/>
+        <c:axId val="1533659232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16928,7 +16968,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16995,12 +17034,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843069856"/>
+        <c:crossAx val="1533662992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="843069856"/>
+        <c:axId val="1533662992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17046,7 +17085,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17113,7 +17151,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326841712"/>
+        <c:crossAx val="1533659232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17202,7 +17240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17551,11 +17588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235640688"/>
-        <c:axId val="1235643952"/>
+        <c:axId val="1533051136"/>
+        <c:axId val="1533054400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235640688"/>
+        <c:axId val="1533051136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17598,7 +17635,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235643952"/>
+        <c:crossAx val="1533054400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17606,7 +17643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235643952"/>
+        <c:axId val="1533054400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17643,7 +17680,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235640688"/>
+        <c:crossAx val="1533051136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17657,7 +17694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17890,11 +17926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1297272832"/>
-        <c:axId val="1297275952"/>
+        <c:axId val="1534138288"/>
+        <c:axId val="1534142048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1297272832"/>
+        <c:axId val="1534138288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17993,12 +18029,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1297275952"/>
+        <c:crossAx val="1534142048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1297275952"/>
+        <c:axId val="1534142048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18111,7 +18147,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1297272832"/>
+        <c:crossAx val="1534138288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18200,7 +18236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18326,11 +18361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1330019712"/>
-        <c:axId val="1297996544"/>
+        <c:axId val="1530383552"/>
+        <c:axId val="1530387312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1330019712"/>
+        <c:axId val="1530383552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18362,7 +18397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18429,12 +18463,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1297996544"/>
+        <c:crossAx val="1530387312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1297996544"/>
+        <c:axId val="1530387312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18480,7 +18514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18547,7 +18580,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1330019712"/>
+        <c:crossAx val="1530383552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18762,11 +18795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="847152400"/>
-        <c:axId val="847155520"/>
+        <c:axId val="1534157104"/>
+        <c:axId val="1534160864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="847152400"/>
+        <c:axId val="1534157104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18865,12 +18898,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="847155520"/>
+        <c:crossAx val="1534160864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="847155520"/>
+        <c:axId val="1534160864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18983,7 +19016,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="847152400"/>
+        <c:crossAx val="1534157104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19072,7 +19105,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19198,11 +19230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1325508800"/>
-        <c:axId val="847185664"/>
+        <c:axId val="1534181856"/>
+        <c:axId val="1534185616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1325508800"/>
+        <c:axId val="1534181856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19234,7 +19266,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19301,12 +19332,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="847185664"/>
+        <c:crossAx val="1534185616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="847185664"/>
+        <c:axId val="1534185616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19352,7 +19383,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19419,7 +19449,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325508800"/>
+        <c:crossAx val="1534181856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19634,11 +19664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="846833856"/>
-        <c:axId val="1327767376"/>
+        <c:axId val="1533682352"/>
+        <c:axId val="1533686112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="846833856"/>
+        <c:axId val="1533682352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19737,12 +19767,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327767376"/>
+        <c:crossAx val="1533686112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1327767376"/>
+        <c:axId val="1533686112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19855,7 +19885,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="846833856"/>
+        <c:crossAx val="1533682352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19944,7 +19974,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20064,11 +20093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1304377328"/>
-        <c:axId val="1303828992"/>
+        <c:axId val="1533707296"/>
+        <c:axId val="1533711056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1304377328"/>
+        <c:axId val="1533707296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20100,7 +20129,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20167,12 +20195,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1303828992"/>
+        <c:crossAx val="1533711056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1303828992"/>
+        <c:axId val="1533711056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20218,7 +20246,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20285,7 +20312,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304377328"/>
+        <c:crossAx val="1533707296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20374,7 +20401,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20819,11 +20845,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1235684720"/>
-        <c:axId val="1235687984"/>
+        <c:axId val="1528662208"/>
+        <c:axId val="1528665472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235684720"/>
+        <c:axId val="1528662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20866,7 +20892,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235687984"/>
+        <c:crossAx val="1528665472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20874,7 +20900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1235687984"/>
+        <c:axId val="1528665472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20911,7 +20937,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235684720"/>
+        <c:crossAx val="1528662208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20925,7 +20951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21032,7 +21057,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21156,11 +21180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235706400"/>
-        <c:axId val="1235710160"/>
+        <c:axId val="1528688912"/>
+        <c:axId val="1528692672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235706400"/>
+        <c:axId val="1528688912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21192,7 +21216,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21258,12 +21281,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235710160"/>
+        <c:crossAx val="1528692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235710160"/>
+        <c:axId val="1528692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21309,7 +21332,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21375,7 +21397,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235706400"/>
+        <c:crossAx val="1528688912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21464,7 +21486,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21606,11 +21627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235731104"/>
-        <c:axId val="1235734864"/>
+        <c:axId val="1533084224"/>
+        <c:axId val="1533087984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235731104"/>
+        <c:axId val="1533084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21642,7 +21663,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21708,12 +21728,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235734864"/>
+        <c:crossAx val="1533087984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235734864"/>
+        <c:axId val="1533087984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21759,7 +21779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21825,7 +21844,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235731104"/>
+        <c:crossAx val="1533084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21914,7 +21933,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22038,11 +22056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235755600"/>
-        <c:axId val="1235759360"/>
+        <c:axId val="1528705072"/>
+        <c:axId val="1528708832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235755600"/>
+        <c:axId val="1528705072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22074,7 +22092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22104,6 +22121,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -22140,12 +22158,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235759360"/>
+        <c:crossAx val="1528708832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235759360"/>
+        <c:axId val="1528708832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22191,7 +22209,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22257,7 +22274,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235755600"/>
+        <c:crossAx val="1528705072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22346,7 +22363,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22476,11 +22492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1235783776"/>
-        <c:axId val="1235787536"/>
+        <c:axId val="1528732240"/>
+        <c:axId val="1528736000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1235783776"/>
+        <c:axId val="1528732240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22512,7 +22528,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22578,12 +22593,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235787536"/>
+        <c:crossAx val="1528736000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1235787536"/>
+        <c:axId val="1528736000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22629,7 +22644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22695,7 +22709,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235783776"/>
+        <c:crossAx val="1528732240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -49620,8 +49634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49630,22 +49644,22 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="8" width="16.83203125" customWidth="1"/>
     <col min="10" max="10" width="4.83203125" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="68"/>
+    <col min="11" max="16384" width="10.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
     </row>
-    <row r="4" spans="1:11" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+    <row r="4" spans="1:11" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="19" t="s">
         <v>3</v>
       </c>
@@ -49664,13 +49678,13 @@
       <c r="H4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
@@ -49694,13 +49708,13 @@
       <c r="I5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="7">
         <v>0.78</v>
       </c>
@@ -49722,12 +49736,12 @@
       <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="7">
         <v>0.51</v>
       </c>
@@ -49749,12 +49763,12 @@
       <c r="I7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11">
         <v>0.75</v>
       </c>
@@ -49776,27 +49790,27 @@
       <c r="I8" s="14">
         <v>4</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="76"/>
     </row>
     <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="69"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="76"/>
     </row>
     <row r="10" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
@@ -49820,14 +49834,14 @@
       <c r="I10" s="15">
         <v>1</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="69"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -49849,12 +49863,12 @@
       <c r="I11" s="16">
         <v>2</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="7">
         <v>0.31</v>
       </c>
@@ -49876,12 +49890,12 @@
       <c r="I12" s="16">
         <v>3</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="7">
         <v>0.38</v>
       </c>
@@ -49903,12 +49917,12 @@
       <c r="I13" s="16">
         <v>4</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="69"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="7">
         <v>0.23</v>
       </c>
@@ -49930,12 +49944,12 @@
       <c r="I14" s="16">
         <v>5</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="69"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="7">
         <v>0.28999999999999998</v>
       </c>
@@ -49957,12 +49971,12 @@
       <c r="I15" s="16">
         <v>6</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="69"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11">
         <v>0.22</v>
       </c>
@@ -49984,26 +49998,26 @@
       <c r="I16" s="17">
         <v>7</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3">
@@ -50027,13 +50041,13 @@
       <c r="I18" s="15">
         <v>1</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="7">
         <v>0.45</v>
       </c>
@@ -50055,11 +50069,11 @@
       <c r="I19" s="16">
         <v>2</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="7">
         <v>0.44</v>
       </c>
@@ -50081,11 +50095,11 @@
       <c r="I20" s="16">
         <v>3</v>
       </c>
-      <c r="J20" s="52"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="11">
         <v>0.44</v>
       </c>
@@ -50107,25 +50121,25 @@
       <c r="I21" s="17">
         <v>4</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3">
@@ -50149,13 +50163,13 @@
       <c r="I23" s="15">
         <v>1</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="7">
         <v>0.7</v>
       </c>
@@ -50177,11 +50191,11 @@
       <c r="I24" s="16">
         <v>2</v>
       </c>
-      <c r="J24" s="52"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="7">
         <v>0.7</v>
       </c>
@@ -50203,11 +50217,11 @@
       <c r="I25" s="16">
         <v>3</v>
       </c>
-      <c r="J25" s="52"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="7">
         <v>0.7</v>
       </c>
@@ -50229,11 +50243,11 @@
       <c r="I26" s="16">
         <v>4</v>
       </c>
-      <c r="J26" s="52"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="11">
         <v>0.7</v>
       </c>
@@ -50255,25 +50269,25 @@
       <c r="I27" s="17">
         <v>5</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="77"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="79"/>
     </row>
     <row r="29" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="3">
@@ -50297,13 +50311,13 @@
       <c r="I29" s="24">
         <v>1</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="7">
         <v>0.86</v>
       </c>
@@ -50325,11 +50339,11 @@
       <c r="I30" s="25">
         <v>2</v>
       </c>
-      <c r="J30" s="52"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="7">
         <v>0.53</v>
       </c>
@@ -50351,11 +50365,11 @@
       <c r="I31" s="25">
         <v>3</v>
       </c>
-      <c r="J31" s="52"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="7">
         <v>0.37</v>
       </c>
@@ -50377,11 +50391,11 @@
       <c r="I32" s="25">
         <v>4</v>
       </c>
-      <c r="J32" s="52"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="7">
         <v>0.52</v>
       </c>
@@ -50403,11 +50417,11 @@
       <c r="I33" s="25">
         <v>5</v>
       </c>
-      <c r="J33" s="52"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -50429,11 +50443,11 @@
       <c r="I34" s="25">
         <v>6</v>
       </c>
-      <c r="J34" s="52"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="7">
         <v>0.54</v>
       </c>
@@ -50455,11 +50469,11 @@
       <c r="I35" s="25">
         <v>7</v>
       </c>
-      <c r="J35" s="52"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="7">
         <v>0.6</v>
       </c>
@@ -50481,11 +50495,11 @@
       <c r="I36" s="26">
         <v>8</v>
       </c>
-      <c r="J36" s="52"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="11">
         <v>0.6</v>
       </c>
@@ -50507,14 +50521,14 @@
       <c r="I37" s="27">
         <v>9</v>
       </c>
-      <c r="J37" s="53"/>
+      <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="36">
@@ -50538,13 +50552,13 @@
       <c r="I39" s="24">
         <v>1</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="39">
         <v>1</v>
       </c>
@@ -50566,11 +50580,11 @@
       <c r="I40" s="25">
         <v>2</v>
       </c>
-      <c r="J40" s="52"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="39">
         <v>1</v>
       </c>
@@ -50592,11 +50606,11 @@
       <c r="I41" s="25">
         <v>3</v>
       </c>
-      <c r="J41" s="52"/>
+      <c r="J41" s="55"/>
     </row>
     <row r="42" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="62"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="39">
         <v>1</v>
       </c>
@@ -50618,11 +50632,11 @@
       <c r="I42" s="25">
         <v>4</v>
       </c>
-      <c r="J42" s="52"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="62"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="39">
         <v>1</v>
       </c>
@@ -50644,11 +50658,11 @@
       <c r="I43" s="25">
         <v>5</v>
       </c>
-      <c r="J43" s="52"/>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="39">
         <v>1</v>
       </c>
@@ -50670,11 +50684,11 @@
       <c r="I44" s="25">
         <v>6</v>
       </c>
-      <c r="J44" s="52"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="39">
         <v>1</v>
       </c>
@@ -50696,11 +50710,11 @@
       <c r="I45" s="25">
         <v>7</v>
       </c>
-      <c r="J45" s="52"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="39">
         <v>1</v>
       </c>
@@ -50722,11 +50736,11 @@
       <c r="I46" s="25">
         <v>8</v>
       </c>
-      <c r="J46" s="52"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="39">
         <v>1</v>
       </c>
@@ -50748,11 +50762,11 @@
       <c r="I47" s="25">
         <v>9</v>
       </c>
-      <c r="J47" s="52"/>
+      <c r="J47" s="55"/>
     </row>
     <row r="48" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="41">
         <v>1</v>
       </c>
@@ -50774,14 +50788,14 @@
       <c r="I48" s="35">
         <v>10</v>
       </c>
-      <c r="J48" s="53"/>
+      <c r="J48" s="56"/>
     </row>
     <row r="49" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="37">
@@ -50805,13 +50819,13 @@
       <c r="I50" s="24">
         <v>1</v>
       </c>
-      <c r="J50" s="51" t="s">
+      <c r="J50" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="29">
         <v>0.97</v>
       </c>
@@ -50833,11 +50847,11 @@
       <c r="I51" s="25">
         <v>2</v>
       </c>
-      <c r="J51" s="52"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="49"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="29">
         <v>0.95</v>
       </c>
@@ -50859,11 +50873,11 @@
       <c r="I52" s="25">
         <v>3</v>
       </c>
-      <c r="J52" s="52"/>
+      <c r="J52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="49"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="29">
         <v>0.94</v>
       </c>
@@ -50885,11 +50899,11 @@
       <c r="I53" s="25">
         <v>4</v>
       </c>
-      <c r="J53" s="52"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="49"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="29">
         <v>0.93</v>
       </c>
@@ -50911,11 +50925,11 @@
       <c r="I54" s="25">
         <v>5</v>
       </c>
-      <c r="J54" s="52"/>
+      <c r="J54" s="55"/>
     </row>
     <row r="55" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="49"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="29">
         <v>0.97</v>
       </c>
@@ -50937,11 +50951,11 @@
       <c r="I55" s="25">
         <v>6</v>
       </c>
-      <c r="J55" s="52"/>
+      <c r="J55" s="55"/>
     </row>
     <row r="56" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="50"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="42">
         <v>0.98</v>
       </c>
@@ -50963,14 +50977,14 @@
       <c r="I56" s="35">
         <v>7</v>
       </c>
-      <c r="J56" s="53"/>
+      <c r="J56" s="56"/>
     </row>
     <row r="57" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="37">
@@ -50994,13 +51008,13 @@
       <c r="I58" s="24">
         <v>1</v>
       </c>
-      <c r="J58" s="51" t="s">
+      <c r="J58" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="49"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="29">
         <v>0.72</v>
       </c>
@@ -51022,11 +51036,11 @@
       <c r="I59" s="25">
         <v>2</v>
       </c>
-      <c r="J59" s="52"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="49"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="29">
         <v>0.91</v>
       </c>
@@ -51048,11 +51062,11 @@
       <c r="I60" s="25">
         <v>3</v>
       </c>
-      <c r="J60" s="52"/>
+      <c r="J60" s="55"/>
     </row>
     <row r="61" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="49"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="29">
         <v>0.56999999999999995</v>
       </c>
@@ -51074,11 +51088,11 @@
       <c r="I61" s="25">
         <v>4</v>
       </c>
-      <c r="J61" s="52"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="50"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="42">
         <v>0.65</v>
       </c>
@@ -51100,14 +51114,14 @@
       <c r="I62" s="35">
         <v>5</v>
       </c>
-      <c r="J62" s="53"/>
+      <c r="J62" s="56"/>
     </row>
     <row r="63" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="37">
@@ -51131,13 +51145,13 @@
       <c r="I64" s="24">
         <v>1</v>
       </c>
-      <c r="J64" s="51" t="s">
+      <c r="J64" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="49"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="29">
         <v>0.82</v>
       </c>
@@ -51159,11 +51173,11 @@
       <c r="I65" s="25">
         <v>2</v>
       </c>
-      <c r="J65" s="52"/>
+      <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="49"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="29">
         <v>0.77</v>
       </c>
@@ -51185,11 +51199,11 @@
       <c r="I66" s="25">
         <v>3</v>
       </c>
-      <c r="J66" s="52"/>
+      <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="50"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="42">
         <v>0.65</v>
       </c>
@@ -51211,14 +51225,14 @@
       <c r="I67" s="35">
         <v>4</v>
       </c>
-      <c r="J67" s="53"/>
+      <c r="J67" s="56"/>
     </row>
     <row r="68" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="36">
@@ -51242,13 +51256,13 @@
       <c r="I69" s="30">
         <v>1</v>
       </c>
-      <c r="J69" s="51" t="s">
+      <c r="J69" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="49"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="39">
         <v>0.81</v>
       </c>
@@ -51270,11 +51284,11 @@
       <c r="I70" s="28">
         <v>2</v>
       </c>
-      <c r="J70" s="52"/>
+      <c r="J70" s="55"/>
     </row>
     <row r="71" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="49"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="39">
         <v>0.74</v>
       </c>
@@ -51296,11 +51310,11 @@
       <c r="I71" s="28">
         <v>3</v>
       </c>
-      <c r="J71" s="52"/>
+      <c r="J71" s="55"/>
     </row>
     <row r="72" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="49"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="39">
         <v>0.74</v>
       </c>
@@ -51322,11 +51336,11 @@
       <c r="I72" s="28">
         <v>4</v>
       </c>
-      <c r="J72" s="52"/>
+      <c r="J72" s="55"/>
     </row>
     <row r="73" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="49"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="39">
         <v>0.73</v>
       </c>
@@ -51348,11 +51362,11 @@
       <c r="I73" s="28">
         <v>5</v>
       </c>
-      <c r="J73" s="52"/>
+      <c r="J73" s="55"/>
     </row>
     <row r="74" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="49"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="39">
         <v>0.73</v>
       </c>
@@ -51374,11 +51388,11 @@
       <c r="I74" s="28">
         <v>6</v>
       </c>
-      <c r="J74" s="52"/>
+      <c r="J74" s="55"/>
     </row>
     <row r="75" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="49"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="39">
         <v>0.84</v>
       </c>
@@ -51400,11 +51414,11 @@
       <c r="I75" s="28">
         <v>7</v>
       </c>
-      <c r="J75" s="52"/>
+      <c r="J75" s="55"/>
     </row>
     <row r="76" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="39">
         <v>0.83</v>
       </c>
@@ -51426,11 +51440,11 @@
       <c r="I76" s="28">
         <v>8</v>
       </c>
-      <c r="J76" s="52"/>
+      <c r="J76" s="55"/>
     </row>
     <row r="77" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="49"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="48"/>
       <c r="C77" s="39">
         <v>0.73</v>
       </c>
@@ -51452,11 +51466,11 @@
       <c r="I77" s="28">
         <v>9</v>
       </c>
-      <c r="J77" s="52"/>
+      <c r="J77" s="55"/>
     </row>
     <row r="78" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="49"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="48"/>
       <c r="C78" s="39">
         <v>0.71</v>
       </c>
@@ -51478,11 +51492,11 @@
       <c r="I78" s="28">
         <v>10</v>
       </c>
-      <c r="J78" s="52"/>
+      <c r="J78" s="55"/>
     </row>
     <row r="79" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="50"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="41">
         <v>0.85</v>
       </c>
@@ -51504,14 +51518,14 @@
       <c r="I79" s="44">
         <v>11</v>
       </c>
-      <c r="J79" s="53"/>
+      <c r="J79" s="56"/>
     </row>
     <row r="80" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="58" t="s">
+      <c r="A81" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="37">
@@ -51535,13 +51549,13 @@
       <c r="I81" s="24">
         <v>1</v>
       </c>
-      <c r="J81" s="51" t="s">
+      <c r="J81" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="29">
         <v>0.7</v>
       </c>
@@ -51563,11 +51577,11 @@
       <c r="I82" s="25">
         <v>2</v>
       </c>
-      <c r="J82" s="52"/>
+      <c r="J82" s="55"/>
     </row>
     <row r="83" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
-      <c r="B83" s="50"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="42">
         <v>0.39</v>
       </c>
@@ -51589,16 +51603,16 @@
       <c r="I83" s="35">
         <v>3</v>
       </c>
-      <c r="J83" s="53"/>
+      <c r="J83" s="56"/>
     </row>
     <row r="84" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="31"/>
     </row>
     <row r="85" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="36">
@@ -51622,13 +51636,13 @@
       <c r="I85" s="30">
         <v>1</v>
       </c>
-      <c r="J85" s="51" t="s">
+      <c r="J85" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="49"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="39">
         <v>0.61</v>
       </c>
@@ -51650,11 +51664,11 @@
       <c r="I86" s="28">
         <v>2</v>
       </c>
-      <c r="J86" s="52"/>
+      <c r="J86" s="55"/>
     </row>
     <row r="87" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="49"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="39">
         <v>0.5</v>
       </c>
@@ -51676,11 +51690,11 @@
       <c r="I87" s="28">
         <v>3</v>
       </c>
-      <c r="J87" s="52"/>
+      <c r="J87" s="55"/>
     </row>
     <row r="88" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="49"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="39">
         <v>0.48</v>
       </c>
@@ -51702,11 +51716,11 @@
       <c r="I88" s="28">
         <v>4</v>
       </c>
-      <c r="J88" s="52"/>
+      <c r="J88" s="55"/>
     </row>
     <row r="89" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="49"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="39">
         <v>0.48</v>
       </c>
@@ -51728,11 +51742,11 @@
       <c r="I89" s="28">
         <v>5</v>
       </c>
-      <c r="J89" s="52"/>
+      <c r="J89" s="55"/>
     </row>
     <row r="90" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="49"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="39">
         <v>0.53</v>
       </c>
@@ -51754,11 +51768,11 @@
       <c r="I90" s="28">
         <v>6</v>
       </c>
-      <c r="J90" s="52"/>
+      <c r="J90" s="55"/>
     </row>
     <row r="91" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
-      <c r="B91" s="49"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="48"/>
       <c r="C91" s="39">
         <v>0.55000000000000004</v>
       </c>
@@ -51780,11 +51794,11 @@
       <c r="I91" s="28">
         <v>7</v>
       </c>
-      <c r="J91" s="52"/>
+      <c r="J91" s="55"/>
     </row>
     <row r="92" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="49"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="39">
         <v>0.48</v>
       </c>
@@ -51806,11 +51820,11 @@
       <c r="I92" s="28">
         <v>8</v>
       </c>
-      <c r="J92" s="52"/>
+      <c r="J92" s="55"/>
     </row>
     <row r="93" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="49"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="48"/>
       <c r="C93" s="39">
         <v>0.51</v>
       </c>
@@ -51832,11 +51846,11 @@
       <c r="I93" s="28">
         <v>9</v>
       </c>
-      <c r="J93" s="52"/>
+      <c r="J93" s="55"/>
     </row>
     <row r="94" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="49"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="48"/>
       <c r="C94" s="39">
         <v>0.3</v>
       </c>
@@ -51858,11 +51872,11 @@
       <c r="I94" s="28">
         <v>10</v>
       </c>
-      <c r="J94" s="52"/>
+      <c r="J94" s="55"/>
     </row>
     <row r="95" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="49"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="48"/>
       <c r="C95" s="39">
         <v>0.47</v>
       </c>
@@ -51884,11 +51898,11 @@
       <c r="I95" s="28">
         <v>11</v>
       </c>
-      <c r="J95" s="52"/>
+      <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="49"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="39">
         <v>0.44</v>
       </c>
@@ -51910,11 +51924,11 @@
       <c r="I96" s="28">
         <v>12</v>
       </c>
-      <c r="J96" s="52"/>
+      <c r="J96" s="55"/>
     </row>
     <row r="97" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="49"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="39">
         <v>0.56999999999999995</v>
       </c>
@@ -51936,11 +51950,11 @@
       <c r="I97" s="28">
         <v>13</v>
       </c>
-      <c r="J97" s="52"/>
+      <c r="J97" s="55"/>
     </row>
     <row r="98" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="49"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="48"/>
       <c r="C98" s="39">
         <v>0.52</v>
       </c>
@@ -51962,11 +51976,11 @@
       <c r="I98" s="28">
         <v>14</v>
       </c>
-      <c r="J98" s="52"/>
+      <c r="J98" s="55"/>
     </row>
     <row r="99" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="49"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="39">
         <v>0.41</v>
       </c>
@@ -51988,11 +52002,11 @@
       <c r="I99" s="28">
         <v>15</v>
       </c>
-      <c r="J99" s="52"/>
+      <c r="J99" s="55"/>
     </row>
     <row r="100" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="50"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="41">
         <v>0.55000000000000004</v>
       </c>
@@ -52014,29 +52028,29 @@
       <c r="I100" s="44">
         <v>16</v>
       </c>
-      <c r="J100" s="53"/>
+      <c r="J100" s="56"/>
     </row>
     <row r="101" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
     </row>
     <row r="103" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="104" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C104" s="37">
@@ -52060,13 +52074,13 @@
       <c r="I104" s="24">
         <v>1</v>
       </c>
-      <c r="J104" s="51" t="s">
+      <c r="J104" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="49"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="29">
         <v>0.92</v>
       </c>
@@ -52088,11 +52102,11 @@
       <c r="I105" s="25">
         <v>2</v>
       </c>
-      <c r="J105" s="52"/>
+      <c r="J105" s="55"/>
     </row>
     <row r="106" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="50"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="49"/>
       <c r="C106" s="42">
         <v>0.9</v>
       </c>
@@ -52114,7 +52128,7 @@
       <c r="I106" s="35">
         <v>3</v>
       </c>
-      <c r="J106" s="53"/>
+      <c r="J106" s="56"/>
     </row>
     <row r="107" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="32"/>
@@ -52122,10 +52136,10 @@
       <c r="J107" s="34"/>
     </row>
     <row r="108" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="37">
@@ -52149,13 +52163,13 @@
       <c r="I108" s="24">
         <v>1</v>
       </c>
-      <c r="J108" s="51" t="s">
+      <c r="J108" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="49"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="29">
         <v>0.18</v>
       </c>
@@ -52177,11 +52191,11 @@
       <c r="I109" s="25">
         <v>2</v>
       </c>
-      <c r="J109" s="52"/>
+      <c r="J109" s="55"/>
     </row>
     <row r="110" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="48"/>
       <c r="C110" s="29">
         <v>0.12</v>
       </c>
@@ -52203,11 +52217,11 @@
       <c r="I110" s="25">
         <v>3</v>
       </c>
-      <c r="J110" s="52"/>
+      <c r="J110" s="55"/>
     </row>
     <row r="111" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
-      <c r="B111" s="50"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="42">
         <v>0.22</v>
       </c>
@@ -52229,14 +52243,14 @@
       <c r="I111" s="35">
         <v>4</v>
       </c>
-      <c r="J111" s="53"/>
+      <c r="J111" s="56"/>
     </row>
     <row r="112" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
+      <c r="A113" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="37">
@@ -52260,13 +52274,13 @@
       <c r="I113" s="24">
         <v>1</v>
       </c>
-      <c r="J113" s="51" t="s">
+      <c r="J113" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="49"/>
+      <c r="A114" s="52"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="29">
         <v>0.97</v>
       </c>
@@ -52288,11 +52302,11 @@
       <c r="I114" s="25">
         <v>2</v>
       </c>
-      <c r="J114" s="52"/>
+      <c r="J114" s="55"/>
     </row>
     <row r="115" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
-      <c r="B115" s="49"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="48"/>
       <c r="C115" s="29">
         <v>0.44</v>
       </c>
@@ -52314,11 +52328,11 @@
       <c r="I115" s="25">
         <v>3</v>
       </c>
-      <c r="J115" s="52"/>
+      <c r="J115" s="55"/>
     </row>
     <row r="116" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="50"/>
+      <c r="A116" s="53"/>
+      <c r="B116" s="49"/>
       <c r="C116" s="42">
         <v>0.45</v>
       </c>
@@ -52340,14 +52354,14 @@
       <c r="I116" s="35">
         <v>4</v>
       </c>
-      <c r="J116" s="53"/>
+      <c r="J116" s="56"/>
     </row>
     <row r="117" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="45" t="s">
+      <c r="A118" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C118" s="37">
@@ -52371,13 +52385,13 @@
       <c r="I118" s="24">
         <v>1</v>
       </c>
-      <c r="J118" s="51" t="s">
+      <c r="J118" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="49"/>
+      <c r="A119" s="52"/>
+      <c r="B119" s="48"/>
       <c r="C119" s="29">
         <v>0.43</v>
       </c>
@@ -52399,11 +52413,11 @@
       <c r="I119" s="25">
         <v>2</v>
       </c>
-      <c r="J119" s="52"/>
+      <c r="J119" s="55"/>
     </row>
     <row r="120" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="49"/>
+      <c r="A120" s="52"/>
+      <c r="B120" s="48"/>
       <c r="C120" s="29">
         <v>0.37</v>
       </c>
@@ -52425,11 +52439,11 @@
       <c r="I120" s="25">
         <v>3</v>
       </c>
-      <c r="J120" s="52"/>
+      <c r="J120" s="55"/>
     </row>
     <row r="121" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="50"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="42">
         <v>0.53</v>
       </c>
@@ -52451,14 +52465,14 @@
       <c r="I121" s="35">
         <v>4</v>
       </c>
-      <c r="J121" s="53"/>
+      <c r="J121" s="56"/>
     </row>
     <row r="122" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="37">
@@ -52482,13 +52496,13 @@
       <c r="I123" s="24">
         <v>1</v>
       </c>
-      <c r="J123" s="51" t="s">
+      <c r="J123" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
-      <c r="B124" s="49"/>
+      <c r="A124" s="52"/>
+      <c r="B124" s="48"/>
       <c r="C124" s="29">
         <v>0.63</v>
       </c>
@@ -52510,11 +52524,11 @@
       <c r="I124" s="25">
         <v>2</v>
       </c>
-      <c r="J124" s="52"/>
+      <c r="J124" s="55"/>
     </row>
     <row r="125" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
-      <c r="B125" s="49"/>
+      <c r="A125" s="52"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="29">
         <v>0.44</v>
       </c>
@@ -52536,11 +52550,11 @@
       <c r="I125" s="25">
         <v>3</v>
       </c>
-      <c r="J125" s="52"/>
+      <c r="J125" s="55"/>
     </row>
     <row r="126" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="50"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="49"/>
       <c r="C126" s="42">
         <v>0.46</v>
       </c>
@@ -52562,14 +52576,14 @@
       <c r="I126" s="35">
         <v>4</v>
       </c>
-      <c r="J126" s="53"/>
+      <c r="J126" s="56"/>
     </row>
     <row r="127" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="37">
@@ -52593,13 +52607,13 @@
       <c r="I128" s="24">
         <v>1</v>
       </c>
-      <c r="J128" s="51" t="s">
+      <c r="J128" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="49"/>
+      <c r="A129" s="52"/>
+      <c r="B129" s="48"/>
       <c r="C129" s="29">
         <v>0.71</v>
       </c>
@@ -52621,11 +52635,11 @@
       <c r="I129" s="25">
         <v>2</v>
       </c>
-      <c r="J129" s="52"/>
+      <c r="J129" s="55"/>
     </row>
     <row r="130" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="46"/>
-      <c r="B130" s="49"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="48"/>
       <c r="C130" s="29">
         <v>0.68</v>
       </c>
@@ -52647,11 +52661,11 @@
       <c r="I130" s="25">
         <v>3</v>
       </c>
-      <c r="J130" s="52"/>
+      <c r="J130" s="55"/>
     </row>
     <row r="131" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="50"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="49"/>
       <c r="C131" s="42">
         <v>0.71</v>
       </c>
@@ -52673,14 +52687,14 @@
       <c r="I131" s="35">
         <v>4</v>
       </c>
-      <c r="J131" s="53"/>
+      <c r="J131" s="56"/>
     </row>
     <row r="132" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="48" t="s">
+      <c r="B133" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="37">
@@ -52704,13 +52718,13 @@
       <c r="I133" s="24">
         <v>1</v>
       </c>
-      <c r="J133" s="51" t="s">
+      <c r="J133" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
-      <c r="B134" s="49"/>
+      <c r="A134" s="52"/>
+      <c r="B134" s="48"/>
       <c r="C134" s="29">
         <v>0.86</v>
       </c>
@@ -52732,11 +52746,11 @@
       <c r="I134" s="25">
         <v>2</v>
       </c>
-      <c r="J134" s="52"/>
+      <c r="J134" s="55"/>
     </row>
     <row r="135" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="50"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="49"/>
       <c r="C135" s="42">
         <v>0.71</v>
       </c>
@@ -52758,29 +52772,29 @@
       <c r="I135" s="35">
         <v>3</v>
       </c>
-      <c r="J135" s="53"/>
+      <c r="J135" s="56"/>
     </row>
     <row r="136" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="57" t="s">
+      <c r="A137" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="57"/>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="50"/>
     </row>
     <row r="138" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="45" t="s">
+      <c r="A139" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C139" s="37">
@@ -52804,13 +52818,13 @@
       <c r="I139" s="24">
         <v>1</v>
       </c>
-      <c r="J139" s="51" t="s">
+      <c r="J139" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="46"/>
-      <c r="B140" s="49"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="48"/>
       <c r="C140" s="29">
         <v>0.3</v>
       </c>
@@ -52832,11 +52846,11 @@
       <c r="I140" s="25">
         <v>2</v>
       </c>
-      <c r="J140" s="52"/>
+      <c r="J140" s="55"/>
     </row>
     <row r="141" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
-      <c r="B141" s="50"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="49"/>
       <c r="C141" s="42">
         <v>0.96</v>
       </c>
@@ -52858,7 +52872,7 @@
       <c r="I141" s="35">
         <v>3</v>
       </c>
-      <c r="J141" s="53"/>
+      <c r="J141" s="56"/>
     </row>
     <row r="142" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="32"/>
@@ -52866,10 +52880,10 @@
       <c r="J142" s="34"/>
     </row>
     <row r="143" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="37">
@@ -52893,13 +52907,13 @@
       <c r="I143" s="24">
         <v>1</v>
       </c>
-      <c r="J143" s="51" t="s">
+      <c r="J143" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="B144" s="49"/>
+      <c r="A144" s="58"/>
+      <c r="B144" s="48"/>
       <c r="C144" s="29">
         <v>-0.08</v>
       </c>
@@ -52921,11 +52935,11 @@
       <c r="I144" s="25">
         <v>2</v>
       </c>
-      <c r="J144" s="52"/>
+      <c r="J144" s="55"/>
     </row>
     <row r="145" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="49"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="48"/>
       <c r="C145" s="29">
         <v>-0.1</v>
       </c>
@@ -52947,11 +52961,11 @@
       <c r="I145" s="25">
         <v>3</v>
       </c>
-      <c r="J145" s="52"/>
+      <c r="J145" s="55"/>
     </row>
     <row r="146" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="56"/>
-      <c r="B146" s="50"/>
+      <c r="A146" s="59"/>
+      <c r="B146" s="49"/>
       <c r="C146" s="42">
         <v>-0.15</v>
       </c>
@@ -52973,14 +52987,14 @@
       <c r="I146" s="35">
         <v>4</v>
       </c>
-      <c r="J146" s="53"/>
+      <c r="J146" s="56"/>
     </row>
     <row r="147" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="148" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="45" t="s">
+      <c r="A148" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C148" s="37">
@@ -53004,13 +53018,13 @@
       <c r="I148" s="24">
         <v>1</v>
       </c>
-      <c r="J148" s="51" t="s">
+      <c r="J148" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="46"/>
-      <c r="B149" s="49"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="48"/>
       <c r="C149" s="29">
         <v>0.3</v>
       </c>
@@ -53032,11 +53046,11 @@
       <c r="I149" s="25">
         <v>2</v>
       </c>
-      <c r="J149" s="52"/>
+      <c r="J149" s="55"/>
     </row>
     <row r="150" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="46"/>
-      <c r="B150" s="49"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="48"/>
       <c r="C150" s="29">
         <v>0.19</v>
       </c>
@@ -53058,11 +53072,11 @@
       <c r="I150" s="25">
         <v>3</v>
       </c>
-      <c r="J150" s="52"/>
+      <c r="J150" s="55"/>
     </row>
     <row r="151" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
-      <c r="B151" s="50"/>
+      <c r="A151" s="53"/>
+      <c r="B151" s="49"/>
       <c r="C151" s="42">
         <v>0.11</v>
       </c>
@@ -53084,14 +53098,14 @@
       <c r="I151" s="35">
         <v>4</v>
       </c>
-      <c r="J151" s="53"/>
+      <c r="J151" s="56"/>
     </row>
     <row r="152" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="45" t="s">
+      <c r="A153" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C153" s="37">
@@ -53115,13 +53129,13 @@
       <c r="I153" s="24">
         <v>1</v>
       </c>
-      <c r="J153" s="51" t="s">
+      <c r="J153" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="46"/>
-      <c r="B154" s="49"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="48"/>
       <c r="C154" s="29">
         <v>0.39</v>
       </c>
@@ -53143,11 +53157,11 @@
       <c r="I154" s="25">
         <v>2</v>
       </c>
-      <c r="J154" s="52"/>
+      <c r="J154" s="55"/>
     </row>
     <row r="155" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="46"/>
-      <c r="B155" s="49"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="48"/>
       <c r="C155" s="29">
         <v>0.26</v>
       </c>
@@ -53169,11 +53183,11 @@
       <c r="I155" s="25">
         <v>3</v>
       </c>
-      <c r="J155" s="52"/>
+      <c r="J155" s="55"/>
     </row>
     <row r="156" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="50"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="49"/>
       <c r="C156" s="42">
         <v>0.22</v>
       </c>
@@ -53195,14 +53209,14 @@
       <c r="I156" s="35">
         <v>4</v>
       </c>
-      <c r="J156" s="53"/>
+      <c r="J156" s="56"/>
     </row>
     <row r="157" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="45" t="s">
+      <c r="A158" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C158" s="37">
@@ -53226,13 +53240,13 @@
       <c r="I158" s="24">
         <v>1</v>
       </c>
-      <c r="J158" s="51" t="s">
+      <c r="J158" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="46"/>
-      <c r="B159" s="49"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="48"/>
       <c r="C159" s="29">
         <v>0.3</v>
       </c>
@@ -53254,11 +53268,11 @@
       <c r="I159" s="25">
         <v>2</v>
       </c>
-      <c r="J159" s="52"/>
+      <c r="J159" s="55"/>
     </row>
     <row r="160" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="46"/>
-      <c r="B160" s="49"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="48"/>
       <c r="C160" s="29">
         <v>0.23</v>
       </c>
@@ -53280,11 +53294,11 @@
       <c r="I160" s="25">
         <v>3</v>
       </c>
-      <c r="J160" s="52"/>
+      <c r="J160" s="55"/>
     </row>
     <row r="161" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="47"/>
-      <c r="B161" s="50"/>
+      <c r="A161" s="53"/>
+      <c r="B161" s="49"/>
       <c r="C161" s="42">
         <v>0.28000000000000003</v>
       </c>
@@ -53306,14 +53320,14 @@
       <c r="I161" s="35">
         <v>4</v>
       </c>
-      <c r="J161" s="53"/>
+      <c r="J161" s="56"/>
     </row>
     <row r="162" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="163" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="45" t="s">
+      <c r="A163" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C163" s="37">
@@ -53337,13 +53351,13 @@
       <c r="I163" s="24">
         <v>1</v>
       </c>
-      <c r="J163" s="51" t="s">
+      <c r="J163" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="46"/>
-      <c r="B164" s="49"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="48"/>
       <c r="C164" s="29">
         <v>0.33</v>
       </c>
@@ -53365,11 +53379,11 @@
       <c r="I164" s="25">
         <v>2</v>
       </c>
-      <c r="J164" s="52"/>
+      <c r="J164" s="55"/>
     </row>
     <row r="165" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="46"/>
-      <c r="B165" s="49"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="48"/>
       <c r="C165" s="29">
         <v>0.11</v>
       </c>
@@ -53391,11 +53405,11 @@
       <c r="I165" s="25">
         <v>3</v>
       </c>
-      <c r="J165" s="52"/>
+      <c r="J165" s="55"/>
     </row>
     <row r="166" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="47"/>
-      <c r="B166" s="50"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="49"/>
       <c r="C166" s="42">
         <v>0.45</v>
       </c>
@@ -53417,14 +53431,14 @@
       <c r="I166" s="35">
         <v>4</v>
       </c>
-      <c r="J166" s="53"/>
+      <c r="J166" s="56"/>
     </row>
     <row r="167" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="45" t="s">
+      <c r="A168" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C168" s="37">
@@ -53448,13 +53462,13 @@
       <c r="I168" s="24">
         <v>1</v>
       </c>
-      <c r="J168" s="51" t="s">
+      <c r="J168" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="46"/>
-      <c r="B169" s="49"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="48"/>
       <c r="C169" s="29">
         <v>0.28000000000000003</v>
       </c>
@@ -53476,11 +53490,11 @@
       <c r="I169" s="25">
         <v>2</v>
       </c>
-      <c r="J169" s="52"/>
+      <c r="J169" s="55"/>
     </row>
     <row r="170" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="47"/>
-      <c r="B170" s="50"/>
+      <c r="A170" s="53"/>
+      <c r="B170" s="49"/>
       <c r="C170" s="42">
         <v>0.5</v>
       </c>
@@ -53502,29 +53516,29 @@
       <c r="I170" s="35">
         <v>3</v>
       </c>
-      <c r="J170" s="53"/>
+      <c r="J170" s="56"/>
     </row>
     <row r="171" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="82" t="s">
+      <c r="A172" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B172" s="82"/>
-      <c r="C172" s="82"/>
-      <c r="D172" s="82"/>
-      <c r="E172" s="82"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="82"/>
-      <c r="H172" s="82"/>
-      <c r="I172" s="82"/>
-      <c r="J172" s="82"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="83"/>
+      <c r="H172" s="83"/>
+      <c r="I172" s="83"/>
+      <c r="J172" s="83"/>
     </row>
     <row r="173" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="174" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="45" t="s">
+      <c r="A174" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="48" t="s">
+      <c r="B174" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C174" s="37">
@@ -53548,13 +53562,13 @@
       <c r="I174" s="24">
         <v>1</v>
       </c>
-      <c r="J174" s="51" t="s">
+      <c r="J174" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="46"/>
-      <c r="B175" s="49"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="48"/>
       <c r="C175" s="29">
         <v>0.96</v>
       </c>
@@ -53576,11 +53590,11 @@
       <c r="I175" s="25">
         <v>2</v>
       </c>
-      <c r="J175" s="52"/>
+      <c r="J175" s="55"/>
     </row>
     <row r="176" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="47"/>
-      <c r="B176" s="50"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="49"/>
       <c r="C176" s="42">
         <v>0.96</v>
       </c>
@@ -53602,7 +53616,7 @@
       <c r="I176" s="35">
         <v>3</v>
       </c>
-      <c r="J176" s="53"/>
+      <c r="J176" s="56"/>
     </row>
     <row r="177" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="32"/>
@@ -53610,10 +53624,10 @@
       <c r="J177" s="34"/>
     </row>
     <row r="178" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="54" t="s">
+      <c r="A178" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B178" s="48" t="s">
+      <c r="B178" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C178" s="37">
@@ -53637,13 +53651,13 @@
       <c r="I178" s="24">
         <v>1</v>
       </c>
-      <c r="J178" s="51" t="s">
+      <c r="J178" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="55"/>
-      <c r="B179" s="49"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="48"/>
       <c r="C179" s="29">
         <v>0.22</v>
       </c>
@@ -53665,11 +53679,11 @@
       <c r="I179" s="25">
         <v>2</v>
       </c>
-      <c r="J179" s="52"/>
+      <c r="J179" s="55"/>
     </row>
     <row r="180" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="49"/>
+      <c r="A180" s="58"/>
+      <c r="B180" s="48"/>
       <c r="C180" s="29">
         <v>0.08</v>
       </c>
@@ -53691,11 +53705,11 @@
       <c r="I180" s="25">
         <v>3</v>
       </c>
-      <c r="J180" s="52"/>
+      <c r="J180" s="55"/>
     </row>
     <row r="181" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="56"/>
-      <c r="B181" s="50"/>
+      <c r="A181" s="59"/>
+      <c r="B181" s="49"/>
       <c r="C181" s="42">
         <v>0.05</v>
       </c>
@@ -53717,14 +53731,14 @@
       <c r="I181" s="35">
         <v>4</v>
       </c>
-      <c r="J181" s="53"/>
+      <c r="J181" s="56"/>
     </row>
     <row r="182" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="183" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="45" t="s">
+      <c r="A183" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="37">
@@ -53748,13 +53762,13 @@
       <c r="I183" s="24">
         <v>1</v>
       </c>
-      <c r="J183" s="51" t="s">
+      <c r="J183" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="46"/>
-      <c r="B184" s="49"/>
+      <c r="A184" s="52"/>
+      <c r="B184" s="48"/>
       <c r="C184" s="29">
         <v>0.8</v>
       </c>
@@ -53776,11 +53790,11 @@
       <c r="I184" s="25">
         <v>2</v>
       </c>
-      <c r="J184" s="52"/>
+      <c r="J184" s="55"/>
     </row>
     <row r="185" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="46"/>
-      <c r="B185" s="49"/>
+      <c r="A185" s="52"/>
+      <c r="B185" s="48"/>
       <c r="C185" s="29">
         <v>0.85</v>
       </c>
@@ -53802,11 +53816,11 @@
       <c r="I185" s="25">
         <v>3</v>
       </c>
-      <c r="J185" s="52"/>
+      <c r="J185" s="55"/>
     </row>
     <row r="186" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="50"/>
+      <c r="A186" s="53"/>
+      <c r="B186" s="49"/>
       <c r="C186" s="42">
         <v>0.85</v>
       </c>
@@ -53828,14 +53842,14 @@
       <c r="I186" s="35">
         <v>4</v>
       </c>
-      <c r="J186" s="53"/>
+      <c r="J186" s="56"/>
     </row>
     <row r="187" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="188" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="45" t="s">
+      <c r="A188" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B188" s="48" t="s">
+      <c r="B188" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C188" s="37">
@@ -53859,13 +53873,13 @@
       <c r="I188" s="24">
         <v>1</v>
       </c>
-      <c r="J188" s="51" t="s">
+      <c r="J188" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="46"/>
-      <c r="B189" s="49"/>
+      <c r="A189" s="52"/>
+      <c r="B189" s="48"/>
       <c r="C189" s="29">
         <v>0.99</v>
       </c>
@@ -53887,11 +53901,11 @@
       <c r="I189" s="25">
         <v>2</v>
       </c>
-      <c r="J189" s="52"/>
+      <c r="J189" s="55"/>
     </row>
     <row r="190" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="46"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="52"/>
+      <c r="B190" s="48"/>
       <c r="C190" s="29">
         <v>0.93</v>
       </c>
@@ -53913,11 +53927,11 @@
       <c r="I190" s="25">
         <v>3</v>
       </c>
-      <c r="J190" s="52"/>
+      <c r="J190" s="55"/>
     </row>
     <row r="191" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="47"/>
-      <c r="B191" s="50"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="49"/>
       <c r="C191" s="42">
         <v>0.9</v>
       </c>
@@ -53939,14 +53953,14 @@
       <c r="I191" s="35">
         <v>4</v>
       </c>
-      <c r="J191" s="53"/>
+      <c r="J191" s="56"/>
     </row>
     <row r="192" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="45" t="s">
+      <c r="A193" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="48" t="s">
+      <c r="B193" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C193" s="37">
@@ -53970,13 +53984,13 @@
       <c r="I193" s="24">
         <v>1</v>
       </c>
-      <c r="J193" s="51" t="s">
+      <c r="J193" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="46"/>
-      <c r="B194" s="49"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="48"/>
       <c r="C194" s="29">
         <v>0.95</v>
       </c>
@@ -53998,11 +54012,11 @@
       <c r="I194" s="25">
         <v>2</v>
       </c>
-      <c r="J194" s="52"/>
+      <c r="J194" s="55"/>
     </row>
     <row r="195" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="46"/>
-      <c r="B195" s="49"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="48"/>
       <c r="C195" s="29">
         <v>0.93</v>
       </c>
@@ -54024,11 +54038,11 @@
       <c r="I195" s="25">
         <v>3</v>
       </c>
-      <c r="J195" s="52"/>
+      <c r="J195" s="55"/>
     </row>
     <row r="196" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="47"/>
-      <c r="B196" s="50"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="49"/>
       <c r="C196" s="42">
         <v>0.91</v>
       </c>
@@ -54050,14 +54064,14 @@
       <c r="I196" s="35">
         <v>4</v>
       </c>
-      <c r="J196" s="53"/>
+      <c r="J196" s="56"/>
     </row>
     <row r="197" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="198" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="45" t="s">
+      <c r="A198" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="B198" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C198" s="37">
@@ -54081,13 +54095,13 @@
       <c r="I198" s="24">
         <v>1</v>
       </c>
-      <c r="J198" s="51" t="s">
+      <c r="J198" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="46"/>
-      <c r="B199" s="49"/>
+      <c r="A199" s="52"/>
+      <c r="B199" s="48"/>
       <c r="C199" s="29">
         <v>0.94</v>
       </c>
@@ -54109,11 +54123,11 @@
       <c r="I199" s="25">
         <v>2</v>
       </c>
-      <c r="J199" s="52"/>
+      <c r="J199" s="55"/>
     </row>
     <row r="200" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="46"/>
-      <c r="B200" s="49"/>
+      <c r="A200" s="52"/>
+      <c r="B200" s="48"/>
       <c r="C200" s="29">
         <v>0.92</v>
       </c>
@@ -54135,11 +54149,11 @@
       <c r="I200" s="25">
         <v>3</v>
       </c>
-      <c r="J200" s="52"/>
+      <c r="J200" s="55"/>
     </row>
     <row r="201" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="47"/>
-      <c r="B201" s="50"/>
+      <c r="A201" s="53"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="42">
         <v>0.89</v>
       </c>
@@ -54161,14 +54175,14 @@
       <c r="I201" s="35">
         <v>4</v>
       </c>
-      <c r="J201" s="53"/>
+      <c r="J201" s="56"/>
     </row>
     <row r="202" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="203" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="45" t="s">
+      <c r="A203" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B203" s="48" t="s">
+      <c r="B203" s="47" t="s">
         <v>20</v>
       </c>
       <c r="C203" s="37">
@@ -54192,13 +54206,13 @@
       <c r="I203" s="24">
         <v>1</v>
       </c>
-      <c r="J203" s="51" t="s">
+      <c r="J203" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="46"/>
-      <c r="B204" s="49"/>
+      <c r="A204" s="52"/>
+      <c r="B204" s="48"/>
       <c r="C204" s="29">
         <v>0.82</v>
       </c>
@@ -54220,11 +54234,11 @@
       <c r="I204" s="25">
         <v>2</v>
       </c>
-      <c r="J204" s="52"/>
+      <c r="J204" s="55"/>
     </row>
     <row r="205" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="47"/>
-      <c r="B205" s="50"/>
+      <c r="A205" s="53"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="42">
         <v>0.47</v>
       </c>
@@ -54246,358 +54260,786 @@
       <c r="I205" s="35">
         <v>3</v>
       </c>
-      <c r="J205" s="53"/>
+      <c r="J205" s="56"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="81"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="81"/>
-      <c r="D222" s="81"/>
-      <c r="E222" s="81"/>
-      <c r="F222" s="81"/>
-      <c r="G222" s="81"/>
-      <c r="H222" s="81"/>
-      <c r="I222" s="81"/>
-      <c r="J222" s="81"/>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="46"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="46"/>
+      <c r="J207" s="46"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="81"/>
-      <c r="B223" s="81"/>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
-      <c r="E223" s="81"/>
-      <c r="F223" s="81"/>
-      <c r="G223" s="81"/>
-      <c r="H223" s="81"/>
-      <c r="I223" s="81"/>
-      <c r="J223" s="81"/>
+    <row r="208" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I208" s="115" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="81"/>
-      <c r="B224" s="81"/>
-      <c r="C224" s="81"/>
-      <c r="D224" s="81"/>
-      <c r="E224" s="81"/>
-      <c r="F224" s="81"/>
-      <c r="G224" s="81"/>
-      <c r="H224" s="81"/>
-      <c r="I224" s="81"/>
-      <c r="J224" s="81"/>
+    <row r="209" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="B209" s="106"/>
+      <c r="C209" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="D209" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="E209" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="F209" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="G209" s="84">
+        <v>0</v>
+      </c>
+      <c r="H209" s="84">
+        <v>228</v>
+      </c>
+      <c r="I209" s="85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="81"/>
-      <c r="B225" s="81"/>
-      <c r="C225" s="81"/>
-      <c r="D225" s="81"/>
-      <c r="E225" s="81"/>
-      <c r="F225" s="81"/>
-      <c r="G225" s="81"/>
-      <c r="H225" s="81"/>
-      <c r="I225" s="81"/>
-      <c r="J225" s="81"/>
+    <row r="210" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="107"/>
+      <c r="B210" s="103"/>
+      <c r="C210" s="33">
+        <v>0.78</v>
+      </c>
+      <c r="D210" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E210" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F210" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="G210" s="33">
+        <v>0</v>
+      </c>
+      <c r="H210" s="33">
+        <v>1890</v>
+      </c>
+      <c r="I210" s="86">
+        <v>2</v>
+      </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="81"/>
-      <c r="B226" s="81"/>
-      <c r="C226" s="81"/>
-      <c r="D226" s="81"/>
-      <c r="E226" s="81"/>
-      <c r="F226" s="81"/>
-      <c r="G226" s="81"/>
-      <c r="H226" s="81"/>
-      <c r="I226" s="81"/>
-      <c r="J226" s="81"/>
+    <row r="211" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="107"/>
+      <c r="B211" s="103"/>
+      <c r="C211" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="D211" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E211" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F211" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="G211" s="33">
+        <v>0</v>
+      </c>
+      <c r="H211" s="33">
+        <v>1540</v>
+      </c>
+      <c r="I211" s="86">
+        <v>3</v>
+      </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="81"/>
-      <c r="B227" s="81"/>
-      <c r="C227" s="81"/>
-      <c r="D227" s="81"/>
-      <c r="E227" s="81"/>
-      <c r="F227" s="81"/>
-      <c r="G227" s="81"/>
-      <c r="H227" s="81"/>
-      <c r="I227" s="81"/>
-      <c r="J227" s="81"/>
+    <row r="212" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="107"/>
+      <c r="B212" s="103"/>
+      <c r="C212" s="33">
+        <v>0.85</v>
+      </c>
+      <c r="D212" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E212" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F212" s="33">
+        <v>0.82</v>
+      </c>
+      <c r="G212" s="33">
+        <v>0</v>
+      </c>
+      <c r="H212" s="33">
+        <v>1228</v>
+      </c>
+      <c r="I212" s="86">
+        <v>4</v>
+      </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="81"/>
-      <c r="B228" s="81"/>
-      <c r="C228" s="81"/>
-      <c r="D228" s="81"/>
-      <c r="E228" s="81"/>
-      <c r="F228" s="81"/>
-      <c r="G228" s="81"/>
-      <c r="H228" s="81"/>
-      <c r="I228" s="81"/>
-      <c r="J228" s="81"/>
+    <row r="213" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="108"/>
+      <c r="B213" s="109"/>
+      <c r="C213" s="33">
+        <v>0.96</v>
+      </c>
+      <c r="D213" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E213" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F213" s="33">
+        <v>0.9</v>
+      </c>
+      <c r="G213" s="33">
+        <v>0</v>
+      </c>
+      <c r="H213" s="33">
+        <v>920</v>
+      </c>
+      <c r="I213" s="86">
+        <v>5</v>
+      </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="81"/>
-      <c r="B229" s="81"/>
-      <c r="C229" s="81"/>
-      <c r="D229" s="81"/>
-      <c r="E229" s="81"/>
-      <c r="F229" s="81"/>
-      <c r="G229" s="81"/>
-      <c r="H229" s="81"/>
-      <c r="I229" s="81"/>
-      <c r="J229" s="81"/>
+    <row r="214" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="33">
+        <v>0.97</v>
+      </c>
+      <c r="D214" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E214" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="F214" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="G214" s="33">
+        <v>0</v>
+      </c>
+      <c r="H214" s="33">
+        <v>683</v>
+      </c>
+      <c r="I214" s="86">
+        <v>6</v>
+      </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="81"/>
-      <c r="B230" s="81"/>
-      <c r="C230" s="81"/>
-      <c r="D230" s="81"/>
-      <c r="E230" s="81"/>
-      <c r="F230" s="81"/>
-      <c r="G230" s="81"/>
-      <c r="H230" s="81"/>
-      <c r="I230" s="81"/>
-      <c r="J230" s="81"/>
+    <row r="215" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" s="89">
+        <v>0.72</v>
+      </c>
+      <c r="D215" s="89"/>
+      <c r="E215" s="89"/>
+      <c r="F215" s="89"/>
+      <c r="G215" s="89"/>
+      <c r="H215" s="89"/>
+      <c r="I215" s="90"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="81"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
-      <c r="E231" s="81"/>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="81"/>
-      <c r="J231" s="81"/>
+    <row r="216" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217" s="106"/>
+      <c r="C217" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="D217" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="E217" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="F217" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="G217" s="84">
+        <v>0.06</v>
+      </c>
+      <c r="H217" s="84">
+        <v>667</v>
+      </c>
+      <c r="I217" s="85">
+        <v>1</v>
+      </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="81"/>
-      <c r="B232" s="81"/>
-      <c r="C232" s="81"/>
-      <c r="D232" s="81"/>
-      <c r="E232" s="81"/>
-      <c r="F232" s="81"/>
-      <c r="G232" s="81"/>
-      <c r="H232" s="81"/>
-      <c r="I232" s="81"/>
-      <c r="J232" s="81"/>
+    <row r="218" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="107"/>
+      <c r="B218" s="103"/>
+      <c r="C218" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D218" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E218" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F218" s="33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G218" s="33">
+        <v>0</v>
+      </c>
+      <c r="H218" s="33">
+        <v>4608</v>
+      </c>
+      <c r="I218" s="86">
+        <v>2</v>
+      </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="81"/>
-      <c r="B233" s="81"/>
-      <c r="C233" s="81"/>
-      <c r="D233" s="81"/>
-      <c r="E233" s="81"/>
-      <c r="F233" s="81"/>
-      <c r="G233" s="81"/>
-      <c r="H233" s="81"/>
-      <c r="I233" s="81"/>
-      <c r="J233" s="81"/>
+    <row r="219" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="107"/>
+      <c r="B219" s="103"/>
+      <c r="C219" s="33">
+        <v>0.69</v>
+      </c>
+      <c r="D219" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E219" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F219" s="33">
+        <v>0.65</v>
+      </c>
+      <c r="G219" s="33">
+        <v>0</v>
+      </c>
+      <c r="H219" s="33">
+        <v>2999</v>
+      </c>
+      <c r="I219" s="86">
+        <v>3</v>
+      </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="81"/>
-      <c r="B234" s="81"/>
-      <c r="C234" s="81"/>
-      <c r="D234" s="81"/>
-      <c r="E234" s="81"/>
-      <c r="F234" s="81"/>
-      <c r="G234" s="81"/>
-      <c r="H234" s="81"/>
-      <c r="I234" s="81"/>
-      <c r="J234" s="81"/>
+    <row r="220" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="107"/>
+      <c r="B220" s="103"/>
+      <c r="C220" s="33">
+        <v>0.72</v>
+      </c>
+      <c r="D220" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E220" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F220" s="33">
+        <v>0.62</v>
+      </c>
+      <c r="G220" s="33">
+        <v>0</v>
+      </c>
+      <c r="H220" s="33">
+        <v>1955</v>
+      </c>
+      <c r="I220" s="86">
+        <v>4</v>
+      </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="81"/>
-      <c r="B235" s="81"/>
-      <c r="C235" s="81"/>
-      <c r="D235" s="81"/>
-      <c r="E235" s="81"/>
-      <c r="F235" s="81"/>
-      <c r="G235" s="81"/>
-      <c r="H235" s="81"/>
-      <c r="I235" s="81"/>
-      <c r="J235" s="81"/>
+    <row r="221" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="108"/>
+      <c r="B221" s="109"/>
+      <c r="C221" s="33">
+        <v>0.69</v>
+      </c>
+      <c r="D221" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E221" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F221" s="33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G221" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="H221" s="33">
+        <v>1136</v>
+      </c>
+      <c r="I221" s="86">
+        <v>5</v>
+      </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="81"/>
-      <c r="B236" s="81"/>
-      <c r="C236" s="81"/>
-      <c r="D236" s="81"/>
-      <c r="E236" s="81"/>
-      <c r="F236" s="81"/>
-      <c r="G236" s="81"/>
-      <c r="H236" s="81"/>
-      <c r="I236" s="81"/>
-      <c r="J236" s="81"/>
+    <row r="222" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="45"/>
+      <c r="B222" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222" s="89">
+        <v>0.65</v>
+      </c>
+      <c r="D222" s="89"/>
+      <c r="E222" s="89"/>
+      <c r="F222" s="89"/>
+      <c r="G222" s="89"/>
+      <c r="H222" s="89"/>
+      <c r="I222" s="90"/>
+      <c r="J222" s="45"/>
+    </row>
+    <row r="223" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="45"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="45"/>
+      <c r="H223" s="45"/>
+      <c r="I223" s="45"/>
+      <c r="J223" s="45"/>
+    </row>
+    <row r="224" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" s="111"/>
+      <c r="C224" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="D224" s="92">
+        <v>0.01</v>
+      </c>
+      <c r="E224" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="F224" s="91">
+        <v>0.87</v>
+      </c>
+      <c r="G224" s="91">
+        <v>0.01</v>
+      </c>
+      <c r="H224" s="91">
+        <v>1188</v>
+      </c>
+      <c r="I224" s="93">
+        <v>1</v>
+      </c>
+      <c r="J224" s="45"/>
+    </row>
+    <row r="225" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="112"/>
+      <c r="B225" s="104"/>
+      <c r="C225" s="94">
+        <v>0.83</v>
+      </c>
+      <c r="D225" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="E225" s="94">
+        <v>0.2</v>
+      </c>
+      <c r="F225" s="94">
+        <v>0.8</v>
+      </c>
+      <c r="G225" s="94">
+        <v>0</v>
+      </c>
+      <c r="H225" s="94">
+        <v>6982</v>
+      </c>
+      <c r="I225" s="95">
+        <v>2</v>
+      </c>
+      <c r="J225" s="45"/>
+    </row>
+    <row r="226" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="112"/>
+      <c r="B226" s="104"/>
+      <c r="C226" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="D226" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="E226" s="94">
+        <v>0.3</v>
+      </c>
+      <c r="F226" s="94">
+        <v>0.62</v>
+      </c>
+      <c r="G226" s="94">
+        <v>0</v>
+      </c>
+      <c r="H226" s="94">
+        <v>4335</v>
+      </c>
+      <c r="I226" s="95">
+        <v>3</v>
+      </c>
+      <c r="J226" s="45"/>
+    </row>
+    <row r="227" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="112"/>
+      <c r="B227" s="104"/>
+      <c r="C227" s="94">
+        <v>0.72</v>
+      </c>
+      <c r="D227" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="E227" s="94">
+        <v>0.4</v>
+      </c>
+      <c r="F227" s="94">
+        <v>0.65</v>
+      </c>
+      <c r="G227" s="94">
+        <v>0</v>
+      </c>
+      <c r="H227" s="94">
+        <v>2534</v>
+      </c>
+      <c r="I227" s="95">
+        <v>4</v>
+      </c>
+      <c r="J227" s="45"/>
+    </row>
+    <row r="228" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="113"/>
+      <c r="B228" s="114"/>
+      <c r="C228" s="94">
+        <v>0.69</v>
+      </c>
+      <c r="D228" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="E228" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="F228" s="94">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G228" s="94">
+        <v>0.01</v>
+      </c>
+      <c r="H228" s="94">
+        <v>1301</v>
+      </c>
+      <c r="I228" s="95">
+        <v>5</v>
+      </c>
+      <c r="J228" s="45"/>
+    </row>
+    <row r="229" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="45"/>
+      <c r="B229" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="97">
+        <v>0.65</v>
+      </c>
+      <c r="D229" s="97"/>
+      <c r="E229" s="97"/>
+      <c r="F229" s="97"/>
+      <c r="G229" s="97"/>
+      <c r="H229" s="97"/>
+      <c r="I229" s="98"/>
+      <c r="J229" s="45"/>
+    </row>
+    <row r="230" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="45"/>
+      <c r="D230" s="45"/>
+      <c r="E230" s="45"/>
+      <c r="F230" s="45"/>
+      <c r="G230" s="45"/>
+      <c r="H230" s="45"/>
+      <c r="I230" s="45"/>
+      <c r="J230" s="45"/>
+    </row>
+    <row r="231" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="106"/>
+      <c r="C231" s="99">
+        <v>0.31</v>
+      </c>
+      <c r="D231" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="E231" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="F231" s="99">
+        <v>0.63</v>
+      </c>
+      <c r="G231" s="99">
+        <v>0.05</v>
+      </c>
+      <c r="H231" s="99">
+        <v>433</v>
+      </c>
+      <c r="I231" s="85">
+        <v>1</v>
+      </c>
+      <c r="J231" s="45"/>
+    </row>
+    <row r="232" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="107"/>
+      <c r="B232" s="103"/>
+      <c r="C232" s="100">
+        <v>0.47</v>
+      </c>
+      <c r="D232" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E232" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F232" s="100">
+        <v>0.62</v>
+      </c>
+      <c r="G232" s="33">
+        <v>0</v>
+      </c>
+      <c r="H232" s="100">
+        <v>3300</v>
+      </c>
+      <c r="I232" s="86">
+        <v>2</v>
+      </c>
+      <c r="J232" s="45"/>
+    </row>
+    <row r="233" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="107"/>
+      <c r="B233" s="103"/>
+      <c r="C233" s="100">
+        <v>0.65</v>
+      </c>
+      <c r="D233" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E233" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="F233" s="100">
+        <v>0.66</v>
+      </c>
+      <c r="G233" s="33">
+        <v>0</v>
+      </c>
+      <c r="H233" s="100">
+        <v>2595</v>
+      </c>
+      <c r="I233" s="86">
+        <v>3</v>
+      </c>
+      <c r="J233" s="45"/>
+    </row>
+    <row r="234" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="107"/>
+      <c r="B234" s="103"/>
+      <c r="C234" s="100">
+        <v>0.66</v>
+      </c>
+      <c r="D234" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E234" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="F234" s="100">
+        <v>0.62</v>
+      </c>
+      <c r="G234" s="33">
+        <v>0</v>
+      </c>
+      <c r="H234" s="100">
+        <v>2133</v>
+      </c>
+      <c r="I234" s="86">
+        <v>4</v>
+      </c>
+      <c r="J234" s="45"/>
+    </row>
+    <row r="235" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="108"/>
+      <c r="B235" s="109"/>
+      <c r="C235" s="100">
+        <v>0.65</v>
+      </c>
+      <c r="D235" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="E235" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F235" s="100">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G235" s="33">
+        <v>0</v>
+      </c>
+      <c r="H235" s="100">
+        <v>1535</v>
+      </c>
+      <c r="I235" s="86">
+        <v>5</v>
+      </c>
+      <c r="J235" s="45"/>
+    </row>
+    <row r="236" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="45"/>
+      <c r="B236" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" s="101">
+        <v>0.44</v>
+      </c>
+      <c r="D236" s="101"/>
+      <c r="E236" s="101"/>
+      <c r="F236" s="101"/>
+      <c r="G236" s="101"/>
+      <c r="H236" s="101"/>
+      <c r="I236" s="102"/>
+      <c r="J236" s="45"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="81"/>
-      <c r="B237" s="81"/>
-      <c r="C237" s="81"/>
-      <c r="D237" s="81"/>
-      <c r="E237" s="81"/>
-      <c r="F237" s="81"/>
-      <c r="G237" s="81"/>
-      <c r="H237" s="81"/>
-      <c r="I237" s="81"/>
-      <c r="J237" s="81"/>
+      <c r="A237" s="45"/>
+      <c r="J237" s="45"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="81"/>
-      <c r="B238" s="81"/>
-      <c r="C238" s="81"/>
-      <c r="D238" s="81"/>
-      <c r="E238" s="81"/>
-      <c r="F238" s="81"/>
-      <c r="G238" s="81"/>
-      <c r="H238" s="81"/>
-      <c r="I238" s="81"/>
-      <c r="J238" s="81"/>
+      <c r="A238" s="45"/>
+      <c r="J238" s="45"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="81"/>
-      <c r="B239" s="81"/>
-      <c r="C239" s="81"/>
-      <c r="D239" s="81"/>
-      <c r="E239" s="81"/>
-      <c r="F239" s="81"/>
-      <c r="G239" s="81"/>
-      <c r="H239" s="81"/>
-      <c r="I239" s="81"/>
-      <c r="J239" s="81"/>
+      <c r="A239" s="45"/>
+      <c r="J239" s="45"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="81"/>
-      <c r="B240" s="81"/>
-      <c r="C240" s="81"/>
-      <c r="D240" s="81"/>
-      <c r="E240" s="81"/>
-      <c r="F240" s="81"/>
-      <c r="G240" s="81"/>
-      <c r="H240" s="81"/>
-      <c r="I240" s="81"/>
-      <c r="J240" s="81"/>
+      <c r="A240" s="45"/>
+      <c r="J240" s="45"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="81"/>
-      <c r="B241" s="81"/>
-      <c r="C241" s="81"/>
-      <c r="D241" s="81"/>
-      <c r="E241" s="81"/>
-      <c r="F241" s="81"/>
-      <c r="G241" s="81"/>
-      <c r="H241" s="81"/>
-      <c r="I241" s="81"/>
-      <c r="J241" s="81"/>
+      <c r="A241" s="45"/>
+      <c r="J241" s="45"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="81"/>
-      <c r="B242" s="81"/>
-      <c r="C242" s="81"/>
-      <c r="D242" s="81"/>
-      <c r="E242" s="81"/>
-      <c r="F242" s="81"/>
-      <c r="G242" s="81"/>
-      <c r="H242" s="81"/>
-      <c r="I242" s="81"/>
-      <c r="J242" s="81"/>
+      <c r="A242" s="45"/>
+      <c r="J242" s="45"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="81"/>
-      <c r="B243" s="81"/>
-      <c r="C243" s="81"/>
-      <c r="D243" s="81"/>
-      <c r="E243" s="81"/>
-      <c r="F243" s="81"/>
-      <c r="G243" s="81"/>
-      <c r="H243" s="81"/>
-      <c r="I243" s="81"/>
-      <c r="J243" s="81"/>
+      <c r="A243" s="45"/>
+      <c r="J243" s="45"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="81"/>
-      <c r="B244" s="81"/>
-      <c r="C244" s="81"/>
-      <c r="D244" s="81"/>
-      <c r="E244" s="81"/>
-      <c r="F244" s="81"/>
-      <c r="G244" s="81"/>
-      <c r="H244" s="81"/>
-      <c r="I244" s="81"/>
-      <c r="J244" s="81"/>
+      <c r="A244" s="45"/>
+      <c r="J244" s="45"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="81"/>
-      <c r="B245" s="81"/>
-      <c r="C245" s="81"/>
-      <c r="D245" s="81"/>
-      <c r="E245" s="81"/>
-      <c r="F245" s="81"/>
-      <c r="G245" s="81"/>
-      <c r="H245" s="81"/>
-      <c r="I245" s="81"/>
-      <c r="J245" s="81"/>
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="45"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="45"/>
+      <c r="G245" s="45"/>
+      <c r="H245" s="45"/>
+      <c r="I245" s="45"/>
+      <c r="J245" s="45"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="81"/>
-      <c r="B246" s="81"/>
-      <c r="C246" s="81"/>
-      <c r="D246" s="81"/>
-      <c r="E246" s="81"/>
-      <c r="F246" s="81"/>
-      <c r="G246" s="81"/>
-      <c r="H246" s="81"/>
-      <c r="I246" s="81"/>
-      <c r="J246" s="81"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="45"/>
+      <c r="C246" s="45"/>
+      <c r="D246" s="45"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="45"/>
+      <c r="G246" s="45"/>
+      <c r="H246" s="45"/>
+      <c r="I246" s="45"/>
+      <c r="J246" s="45"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="81"/>
-      <c r="B247" s="81"/>
-      <c r="C247" s="81"/>
-      <c r="D247" s="81"/>
-      <c r="E247" s="81"/>
-      <c r="F247" s="81"/>
-      <c r="G247" s="81"/>
-      <c r="H247" s="81"/>
-      <c r="I247" s="81"/>
-      <c r="J247" s="81"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="45"/>
+      <c r="C247" s="45"/>
+      <c r="D247" s="45"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="45"/>
+      <c r="G247" s="45"/>
+      <c r="H247" s="45"/>
+      <c r="I247" s="45"/>
+      <c r="J247" s="45"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" s="81"/>
-      <c r="B248" s="81"/>
-      <c r="C248" s="81"/>
-      <c r="D248" s="81"/>
-      <c r="E248" s="81"/>
-      <c r="F248" s="81"/>
-      <c r="G248" s="81"/>
-      <c r="H248" s="81"/>
-      <c r="I248" s="81"/>
-      <c r="J248" s="81"/>
+      <c r="A248" s="45"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="45"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="45"/>
+      <c r="G248" s="45"/>
+      <c r="H248" s="45"/>
+      <c r="I248" s="45"/>
+      <c r="J248" s="45"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="81"/>
-      <c r="B249" s="81"/>
-      <c r="C249" s="81"/>
-      <c r="D249" s="81"/>
-      <c r="E249" s="81"/>
-      <c r="F249" s="81"/>
-      <c r="G249" s="81"/>
-      <c r="H249" s="81"/>
-      <c r="I249" s="81"/>
-      <c r="J249" s="81"/>
+      <c r="A249" s="45"/>
+      <c r="B249" s="45"/>
+      <c r="C249" s="45"/>
+      <c r="D249" s="45"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
+      <c r="G249" s="45"/>
+      <c r="H249" s="45"/>
+      <c r="I249" s="45"/>
+      <c r="J249" s="45"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="81"/>
-      <c r="B250" s="81"/>
-      <c r="C250" s="81"/>
-      <c r="D250" s="81"/>
-      <c r="E250" s="81"/>
-      <c r="F250" s="81"/>
-      <c r="G250" s="81"/>
-      <c r="H250" s="81"/>
-      <c r="I250" s="81"/>
-      <c r="J250" s="81"/>
+      <c r="A250" s="45"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="45"/>
+      <c r="D250" s="45"/>
+      <c r="E250" s="45"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="45"/>
+      <c r="H250" s="45"/>
+      <c r="I250" s="45"/>
+      <c r="J250" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="123">
+    <mergeCell ref="A209:B213"/>
+    <mergeCell ref="A217:B221"/>
+    <mergeCell ref="A224:B228"/>
+    <mergeCell ref="A231:B235"/>
     <mergeCell ref="A203:A205"/>
     <mergeCell ref="B203:B205"/>
     <mergeCell ref="J203:J205"/>
@@ -54607,7 +55049,6 @@
     <mergeCell ref="A198:A201"/>
     <mergeCell ref="B198:B201"/>
     <mergeCell ref="J198:J201"/>
-    <mergeCell ref="A183:A186"/>
     <mergeCell ref="B183:B186"/>
     <mergeCell ref="J183:J186"/>
     <mergeCell ref="A188:A191"/>
@@ -54620,24 +55061,6 @@
     <mergeCell ref="A178:A181"/>
     <mergeCell ref="B178:B181"/>
     <mergeCell ref="J178:J181"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="J29:J37"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="B5:B8"/>
@@ -54654,8 +55077,14 @@
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A69:A79"/>
-    <mergeCell ref="A85:A100"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="B58:B62"/>
@@ -54663,6 +55092,16 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A81:A83"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="J29:J37"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="B104:B106"/>
     <mergeCell ref="B113:B116"/>
@@ -54681,6 +55120,10 @@
     <mergeCell ref="A123:A126"/>
     <mergeCell ref="A128:A131"/>
     <mergeCell ref="J133:J135"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J128:J131"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="A85:A100"/>
     <mergeCell ref="J39:J48"/>
     <mergeCell ref="J50:J56"/>
     <mergeCell ref="J58:J62"/>
@@ -54690,10 +55133,9 @@
     <mergeCell ref="J108:J111"/>
     <mergeCell ref="J113:J116"/>
     <mergeCell ref="J118:J121"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="J128:J131"/>
     <mergeCell ref="J104:J106"/>
     <mergeCell ref="J81:J83"/>
+    <mergeCell ref="A207:J207"/>
     <mergeCell ref="B153:B156"/>
     <mergeCell ref="A137:J137"/>
     <mergeCell ref="A158:A161"/>
@@ -54716,6 +55158,7 @@
     <mergeCell ref="A148:A151"/>
     <mergeCell ref="B148:B151"/>
     <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A183:A186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
